--- a/Examples.Library/src/main/resources/xlsx/Template_PurchaseOrder.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_PurchaseOrder.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A419F-C0C7-4BCA-93FF-CC622F45EFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -338,25 +337,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>35171</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>252050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295088</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>473855</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>838200</xdr:rowOff>
+      <xdr:rowOff>739731</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -375,8 +368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="152400"/>
-          <a:ext cx="1120588" cy="685800"/>
+          <a:off x="35171" y="252050"/>
+          <a:ext cx="3023622" cy="487681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,27 +643,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" customWidth="1"/>
+    <col min="3" max="3" width="34.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -678,17 +671,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -699,7 +692,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -710,7 +703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -721,7 +714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -732,7 +725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -743,7 +736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
@@ -754,27 +747,27 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
@@ -791,7 +784,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
@@ -814,7 +807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
@@ -837,7 +830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
@@ -845,7 +838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
@@ -854,7 +847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25" s="6" t="s">
         <v>25</v>
       </c>
@@ -862,7 +855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
@@ -873,7 +866,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -884,7 +877,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
@@ -895,7 +888,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
